--- a/projet 10/Dictionnaire de donne╠ües.xlsx
+++ b/projet 10/Dictionnaire de donne╠ües.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ab5a76f85f29f2b/data analyst opleiding/projet 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_98A0E5340318F1DC6AF0B155C716906359425047" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_98A0E5340318F1DC6AF0B155C716906359425047" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{851F1276-DE68-4985-996A-1B9904D7B3E3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Tables</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Albania</t>
-  </si>
-  <si>
-    <t>Political_Stability</t>
   </si>
   <si>
     <t>index</t>
@@ -349,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,11 +561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
@@ -1621,17 +1618,17 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="9" t="s">
-        <v>40</v>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
